--- a/output/fit_clients/fit_round_461.xlsx
+++ b/output/fit_clients/fit_round_461.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2150525605.742853</v>
+        <v>1715315669.113485</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07214764547883699</v>
+        <v>0.112961460599711</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03768244054765955</v>
+        <v>0.0374603793032908</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1075262818.74504</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2534720202.117462</v>
+        <v>1737195880.827212</v>
       </c>
       <c r="F3" t="n">
-        <v>0.179345593904888</v>
+        <v>0.1496858030441524</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04355352485531459</v>
+        <v>0.04399445182283428</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1267360223.948965</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5076933408.802785</v>
+        <v>4647856035.579911</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1246039880209781</v>
+        <v>0.1415850525181016</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03595777502447815</v>
+        <v>0.02351441109346071</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>167</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2538466794.893538</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3550774989.44198</v>
+        <v>2766866560.427404</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08948471987121259</v>
+        <v>0.08107648130437897</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04087359486095393</v>
+        <v>0.03680368637843179</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>171</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1775387528.185691</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2581446575.283588</v>
+        <v>2249964798.073103</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1359706325876845</v>
+        <v>0.1127865208157806</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04231450998068624</v>
+        <v>0.03674377456705206</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>87</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1290723254.329961</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3103197996.342705</v>
+        <v>2402487098.762773</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07841661297792782</v>
+        <v>0.08495530096661219</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0483818370491603</v>
+        <v>0.04474654445337837</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>145</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1551598953.209201</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2890063217.328938</v>
+        <v>3366472626.692387</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1834666206215893</v>
+        <v>0.2180302404235791</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02547670033566816</v>
+        <v>0.02604724767111565</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>147</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1445031654.960877</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1826919404.975335</v>
+        <v>1963704625.242129</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1841743078517115</v>
+        <v>0.155473987076627</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02327535654937785</v>
+        <v>0.02546636124440858</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>913459753.1330686</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5577207153.617099</v>
+        <v>5645301280.211012</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1314040530760714</v>
+        <v>0.2034978259830872</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04469854746504829</v>
+        <v>0.04552933484327075</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>194</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2788603720.821261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2796513933.858249</v>
+        <v>2850087050.445586</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1352015591159423</v>
+        <v>0.1261513088700133</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04305044364771096</v>
+        <v>0.04835520266815837</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>191</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1398256895.752227</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2866927418.030643</v>
+        <v>3243166819.248123</v>
       </c>
       <c r="F12" t="n">
-        <v>0.123702536673801</v>
+        <v>0.1978475316482579</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04479292758340155</v>
+        <v>0.03548324897538212</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>157</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1433463714.877717</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4302175934.79882</v>
+        <v>5326873245.684625</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0854916330966185</v>
+        <v>0.06839295516442696</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02649152538371234</v>
+        <v>0.02050751580923639</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>155</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2151088007.00129</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3731713640.989964</v>
+        <v>3709806536.909308</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1539374786950265</v>
+        <v>0.1393727162445354</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03485767018331468</v>
+        <v>0.04169641685962507</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>148</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1865856801.966869</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1143636172.188094</v>
+        <v>1200059130.813608</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06754507352268579</v>
+        <v>0.08835276910053151</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03029864838142515</v>
+        <v>0.04769746040752982</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>571818090.8124989</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2333034135.680754</v>
+        <v>2122513051.442714</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07441916879950515</v>
+        <v>0.09497119195081385</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04083538249752678</v>
+        <v>0.04574443356433659</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>94</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1166517113.590597</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3939036730.873166</v>
+        <v>3219968033.115091</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1103473851914549</v>
+        <v>0.1177628027987191</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03822186689962118</v>
+        <v>0.04981776353706234</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>135</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1969518403.024437</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3970070435.597021</v>
+        <v>3325960712.432165</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1259939712966139</v>
+        <v>0.1807842063503062</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02825071623283925</v>
+        <v>0.0227141170251805</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>151</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1985035177.81609</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>927942400.7435937</v>
+        <v>967718109.1720635</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1791052294197683</v>
+        <v>0.1406861030842406</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0247100355117306</v>
+        <v>0.01817809860937918</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>463971212.0800714</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2648815622.765512</v>
+        <v>2610444465.624361</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1465107503404984</v>
+        <v>0.114922839001437</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02919537287783922</v>
+        <v>0.0200764381187466</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>64</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1324407768.639247</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1870133475.933168</v>
+        <v>1737768755.139513</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08044410026420172</v>
+        <v>0.09135176408481244</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03064452391361642</v>
+        <v>0.03834989706468497</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>36</v>
-      </c>
-      <c r="J21" t="n">
-        <v>935066786.3390074</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3859666503.514349</v>
+        <v>3616755922.601112</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1448089844316779</v>
+        <v>0.1296922670358155</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03542331413720006</v>
+        <v>0.0515345707952234</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>130</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1929833261.832247</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>979515753.9043207</v>
+        <v>1105172941.400021</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1271064189600424</v>
+        <v>0.1274116940245739</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04439065846109894</v>
+        <v>0.03728256677627066</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>489757950.6028965</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3154379126.259484</v>
+        <v>3166118406.997467</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1224672540036827</v>
+        <v>0.1344974301499667</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02964582101491087</v>
+        <v>0.02340844203262785</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>135</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1577189588.004886</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1302209346.41357</v>
+        <v>1227097058.782457</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08041002417220988</v>
+        <v>0.08143214738455753</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02018077927353127</v>
+        <v>0.02860588707981285</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>651104667.6851108</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1022571067.727523</v>
+        <v>1099758026.724898</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1042415894050066</v>
+        <v>0.1044558109754561</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03608554571736555</v>
+        <v>0.03207245680634772</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>511285511.4651749</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3062454922.29936</v>
+        <v>4437689402.19319</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1364023837931699</v>
+        <v>0.1482542339034225</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01954804995838623</v>
+        <v>0.02478627107386691</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>106</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1531227517.870422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2623658435.212975</v>
+        <v>3168260671.563327</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1383566374145129</v>
+        <v>0.1379738520677821</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04450470603952331</v>
+        <v>0.03280364065018877</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>148</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1311829196.170793</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3705956578.011945</v>
+        <v>4206389267.351113</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09809586894085914</v>
+        <v>0.1122558323945673</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03308652407688943</v>
+        <v>0.03781165184190077</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>204</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1852978326.209947</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2350702712.951683</v>
+        <v>2071663985.002352</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09562967447336895</v>
+        <v>0.08900838512963988</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03479660821365737</v>
+        <v>0.03807590615266467</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1175351433.93045</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1421531214.749051</v>
+        <v>1340265173.51577</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09961529085997278</v>
+        <v>0.07047530072984137</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03366732012097302</v>
+        <v>0.04264142744398276</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>710765506.7181714</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1283155838.373794</v>
+        <v>1633814548.920603</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1048260825247837</v>
+        <v>0.10730556983669</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02441601048061157</v>
+        <v>0.02675042526362259</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>641577942.6447942</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2820403108.526283</v>
+        <v>2183494051.74578</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1437165485723218</v>
+        <v>0.2001255476920291</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05030170101059086</v>
+        <v>0.04130929883676842</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>141</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1410201565.207469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1442168382.376493</v>
+        <v>1266268542.411942</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08142060848431118</v>
+        <v>0.09611744831186923</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02158072838580399</v>
+        <v>0.02058396015509985</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>721084156.5210222</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>833030587.1673464</v>
+        <v>1130973324.711743</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07128244099961079</v>
+        <v>0.1065609935686444</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03884647107019311</v>
+        <v>0.04492416166445252</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>416515348.78598</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2367722039.189892</v>
+        <v>2045934256.568848</v>
       </c>
       <c r="F36" t="n">
-        <v>0.162903612028266</v>
+        <v>0.1771545448104925</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0259451742340382</v>
+        <v>0.0212304997432689</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>117</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1183861052.206624</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1853202712.415933</v>
+        <v>1771355625.947609</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09817077130342636</v>
+        <v>0.09721619587910253</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02955418313192066</v>
+        <v>0.02655242000357482</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>124</v>
-      </c>
-      <c r="J37" t="n">
-        <v>926601363.3507712</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1344777702.788489</v>
+        <v>1891240551.29233</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1064947581853479</v>
+        <v>0.07477947270414362</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03730375322879215</v>
+        <v>0.03760728228721892</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>672388922.6060461</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1843746143.297775</v>
+        <v>2187254992.773054</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1485627395854845</v>
+        <v>0.188414014076249</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0284574912071111</v>
+        <v>0.0308068922286648</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>921873089.9312817</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1738442713.323083</v>
+        <v>1482969997.811414</v>
       </c>
       <c r="F40" t="n">
-        <v>0.112819261385523</v>
+        <v>0.1285731290198364</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03994993631441068</v>
+        <v>0.05668799572098435</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>869221263.1774764</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2869504390.710353</v>
+        <v>1828690289.798181</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1638755398071129</v>
+        <v>0.1083704147209158</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02919384086294151</v>
+        <v>0.03495000374312419</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>110</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1434752184.444405</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3806004901.526162</v>
+        <v>3177260435.656065</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08262304141938397</v>
+        <v>0.09287077499004326</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04256593593872402</v>
+        <v>0.04501476979656514</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>151</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1903002466.724726</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2189749656.083627</v>
+        <v>2872136058.065992</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1797153992498029</v>
+        <v>0.192661518523169</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02310236503148637</v>
+        <v>0.02298593560142397</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>161</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1094874907.911319</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1857608985.392024</v>
+        <v>1725353258.249939</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08663236428522045</v>
+        <v>0.08332370816680312</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03669032031413143</v>
+        <v>0.03583426359735729</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>928804570.6418782</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2396296233.29999</v>
+        <v>2239389658.132792</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1212814509448627</v>
+        <v>0.1447625480030735</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04912677854011314</v>
+        <v>0.04161580490464961</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1198148147.4831</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4166093958.440635</v>
+        <v>3515591174.582717</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1428316108470082</v>
+        <v>0.1386553130639566</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04213179364163425</v>
+        <v>0.04275347737040205</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>164</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2083046958.27848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3478213055.050199</v>
+        <v>4142303486.647565</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2011024030577399</v>
+        <v>0.1453341244341284</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05091977979201261</v>
+        <v>0.05584688528202979</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>124</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1739106497.154943</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3608677912.019736</v>
+        <v>3863726511.700311</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1087674144868779</v>
+        <v>0.1101762840424126</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03815186630447764</v>
+        <v>0.03188335612829458</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>150</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1804339013.144857</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1918051753.534381</v>
+        <v>1367852596.447129</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1282901202336146</v>
+        <v>0.1723339313385873</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04097583772050651</v>
+        <v>0.03561139207841332</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>959025843.8242354</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2793564065.60229</v>
+        <v>2808312973.368983</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1693302769584925</v>
+        <v>0.1728426691546432</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04710857149296225</v>
+        <v>0.0381694537476025</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>157</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1396782107.322755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1066867145.945384</v>
+        <v>1492333717.125844</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1763701027976038</v>
+        <v>0.1877007610930579</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05292410272224014</v>
+        <v>0.03805049280052981</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>533433646.1210074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3411631413.200511</v>
+        <v>3515607315.335914</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09279153714833524</v>
+        <v>0.10088366059513</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06175816517102503</v>
+        <v>0.04965185704329606</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>190</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1705815797.730521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3135964689.147201</v>
+        <v>3198071568.779705</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1464468635982425</v>
+        <v>0.1778761031687397</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02672756893997187</v>
+        <v>0.03377020457739208</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>132</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1567982367.658383</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4335748002.223508</v>
+        <v>3650147034.086492</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1448555734462263</v>
+        <v>0.1597898134523192</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05219506750701441</v>
+        <v>0.0494916409213831</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>150</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2167874091.55341</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4135013699.352696</v>
+        <v>3417087004.986075</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1713470160745902</v>
+        <v>0.1615299287861293</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02192394362686956</v>
+        <v>0.03247283622813304</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>129</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2067506830.565256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1293003551.324263</v>
+        <v>1564670303.316355</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1305952640059646</v>
+        <v>0.1549534810353637</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03925792260779296</v>
+        <v>0.04105712216487507</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>646501848.6089553</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2926519476.115731</v>
+        <v>3935961161.915959</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1213706073392003</v>
+        <v>0.1127786440248187</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02752487016979124</v>
+        <v>0.02193306367962162</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>147</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1463259736.312948</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1648851320.628059</v>
+        <v>1642337549.782164</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1547596602167995</v>
+        <v>0.1901130620937286</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02967959518018644</v>
+        <v>0.03809383903211318</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>824425677.8807406</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3505804885.602932</v>
+        <v>4689305484.50255</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1033746730308312</v>
+        <v>0.1024086631956598</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04851845127652303</v>
+        <v>0.03241151870601001</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>127</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1752902442.604906</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2815140124.96732</v>
+        <v>2559233284.115977</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2047331128709201</v>
+        <v>0.1686586497228701</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02999069027654484</v>
+        <v>0.02216916401578073</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>144</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1407570113.46557</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2151958670.066605</v>
+        <v>3273580105.002768</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1285382672202611</v>
+        <v>0.134592470627318</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02039736797202354</v>
+        <v>0.02446632558496313</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>158</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1075979395.496781</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1468950536.764105</v>
+        <v>1328586163.956673</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1573586585757885</v>
+        <v>0.1566707346077173</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03884868807992743</v>
+        <v>0.03420646072525344</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>734475246.8223672</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5244232718.985631</v>
+        <v>4968581110.028445</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1017010075669999</v>
+        <v>0.06899952029018767</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03750732655629653</v>
+        <v>0.04092233100683239</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>132</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2622116366.406491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4147088030.473591</v>
+        <v>4191714785.437548</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1428837879737773</v>
+        <v>0.1380716919102751</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02381394318882173</v>
+        <v>0.02468678501778762</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>144</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2073544061.461471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3659458792.146338</v>
+        <v>5847448989.636111</v>
       </c>
       <c r="F65" t="n">
-        <v>0.116267254155982</v>
+        <v>0.142066226159249</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01981604019441352</v>
+        <v>0.02580663932739262</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>165</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1829729434.989806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5140343724.846467</v>
+        <v>4035311019.116439</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1132959240128794</v>
+        <v>0.1610415851968003</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04721666602021208</v>
+        <v>0.03345659733291712</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>135</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2570171897.159182</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3391124825.900138</v>
+        <v>3240563984.993391</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08527398276948733</v>
+        <v>0.06314759299762759</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04147208948107858</v>
+        <v>0.03997463547658618</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>148</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1695562398.085191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5404148403.92213</v>
+        <v>5451373287.85113</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1183885905469777</v>
+        <v>0.1480536046923852</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04482337043143506</v>
+        <v>0.04788050474436725</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>146</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2702074282.85394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1544223644.954567</v>
+        <v>2432563662.211319</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1545087497142174</v>
+        <v>0.1689869484351076</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04596673088314251</v>
+        <v>0.04854436442908911</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
         <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>772111768.5222116</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2332572131.043655</v>
+        <v>3302301935.110502</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1030042804483484</v>
+        <v>0.07247529088309537</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04617782088556165</v>
+        <v>0.03541711185088587</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>132</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1166285999.074836</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4265560019.298952</v>
+        <v>3947146042.289541</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1636826402898135</v>
+        <v>0.1129068315901799</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03018421017056162</v>
+        <v>0.03087290949517164</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>168</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2132780060.581156</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1470977249.969385</v>
+        <v>2030387757.02748</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08948130066278499</v>
+        <v>0.06611311553045357</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03314223061074623</v>
+        <v>0.04541820343658429</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>735488656.6666809</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2553356056.529149</v>
+        <v>3234425399.446521</v>
       </c>
       <c r="F73" t="n">
-        <v>0.104609607916149</v>
+        <v>0.09131879081151194</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04926976981549595</v>
+        <v>0.03825846773487879</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>174</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1276678065.179274</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2531987799.938151</v>
+        <v>3782721822.701951</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1342858831052412</v>
+        <v>0.1302050412239324</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02532484826599099</v>
+        <v>0.03173850197978368</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>157</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1265994005.871566</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2190858515.814745</v>
+        <v>1888733175.728202</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1546651521430479</v>
+        <v>0.1238869392837992</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03716554442908139</v>
+        <v>0.02726776089013942</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
         <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1095429204.222487</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4599884779.403543</v>
+        <v>4179127233.369125</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1004104341404944</v>
+        <v>0.07844492894079541</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0228533039543345</v>
+        <v>0.02944724928400992</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2299942399.567298</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1472202408.203572</v>
+        <v>1506210886.226818</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1502343267285543</v>
+        <v>0.1165261515111922</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02932963858684396</v>
+        <v>0.02357997225143589</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>736101187.6740452</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4319379022.055137</v>
+        <v>4363009612.942119</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1122255633843368</v>
+        <v>0.1013398269520351</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05280650185571371</v>
+        <v>0.04326668659885798</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>160</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2159689453.925815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1873134381.009963</v>
+        <v>1534144320.097325</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1656930140090922</v>
+        <v>0.1307387574217896</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02768809198232391</v>
+        <v>0.03341467019022559</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>936567290.0210536</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4852108220.620202</v>
+        <v>3545855932.176882</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07803767085340658</v>
+        <v>0.07517195859954236</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02593998589882382</v>
+        <v>0.02829141972457657</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2426054152.182395</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4397112042.513835</v>
+        <v>4597620502.175831</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0887726780894668</v>
+        <v>0.08352378159737017</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02186005813213993</v>
+        <v>0.02667279768163117</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2198555999.240586</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5409135700.106324</v>
+        <v>3491909122.513752</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1920548006112946</v>
+        <v>0.1747308457120168</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02310384243572897</v>
+        <v>0.02646712999634309</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>161</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2704567811.17655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2391545235.194445</v>
+        <v>1883412946.547469</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1058776825788992</v>
+        <v>0.100896851595734</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03775075366773911</v>
+        <v>0.03288600380310931</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1195772651.629789</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2475132911.67566</v>
+        <v>2390504080.643764</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08298807904784855</v>
+        <v>0.09986256050558943</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04179522009862057</v>
+        <v>0.0388778707906337</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>7</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1237566391.332264</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2526039344.543138</v>
+        <v>3201678881.441576</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1274984454924198</v>
+        <v>0.1762516797864141</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04508001987972225</v>
+        <v>0.0378939836009653</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>172</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1263019680.098277</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2792948983.27336</v>
+        <v>2709965755.586695</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1657838322587855</v>
+        <v>0.1109620932904665</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02087578036488551</v>
+        <v>0.01755460206093767</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>56</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1396474629.546445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1406902747.032254</v>
+        <v>1162133165.20072</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1569020885296023</v>
+        <v>0.144429890577166</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02931227952000797</v>
+        <v>0.0355821759298337</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>703451482.1519264</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2693232311.499238</v>
+        <v>3137498806.990916</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1188343508062659</v>
+        <v>0.1697574767245727</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03333264902100387</v>
+        <v>0.02688204199513623</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>184</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1346616155.88744</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3516194158.255834</v>
+        <v>2250604240.960864</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1019591341973021</v>
+        <v>0.1515957001901383</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02549431925613396</v>
+        <v>0.03278314976506264</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>156</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1758097079.408505</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2045472200.028668</v>
+        <v>1838062142.692993</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1215050918074611</v>
+        <v>0.1137242581639025</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04706481984993228</v>
+        <v>0.03680254162882403</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1022736178.574095</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2069124011.251782</v>
+        <v>1728654985.213318</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1499737312136216</v>
+        <v>0.1741118068610498</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03996160281356227</v>
+        <v>0.04047109114438643</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1034561968.724519</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2711270013.362734</v>
+        <v>2449896258.006165</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08153121963994106</v>
+        <v>0.09791539899845714</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0389838793840481</v>
+        <v>0.03183492293383094</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>126</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1355635006.601981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3490203658.339549</v>
+        <v>4923653098.201234</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1338909843500752</v>
+        <v>0.1398492392608558</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0370184406834838</v>
+        <v>0.04217433008825862</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>140</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1745101862.782638</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2366881457.910566</v>
+        <v>1917055905.083228</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1292776351859612</v>
+        <v>0.1095670393777294</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03609264811631186</v>
+        <v>0.02934070595778695</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1183440775.088003</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2463117737.648949</v>
+        <v>3023622688.199109</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1051265144705568</v>
+        <v>0.1218952294984648</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03436853440732978</v>
+        <v>0.03935634465817595</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>110</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1231558907.602159</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1505704624.803018</v>
+        <v>2178316307.690836</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1158925409847287</v>
+        <v>0.1061476661314763</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03883157667942407</v>
+        <v>0.03680499133047692</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>752852352.1535602</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4426142990.724098</v>
+        <v>3439191106.74847</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1703055964449393</v>
+        <v>0.1191406157087816</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02564782007119339</v>
+        <v>0.0202601271245228</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>148</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2213071586.04215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3374659417.561973</v>
+        <v>3863134821.267109</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1034044715090119</v>
+        <v>0.1038483269817529</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02775333296648631</v>
+        <v>0.03136227114479976</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>122</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1687329718.935316</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3323061089.809834</v>
+        <v>3195784061.438854</v>
       </c>
       <c r="F99" t="n">
-        <v>0.125420621273487</v>
+        <v>0.1118939872054275</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03029297641365757</v>
+        <v>0.0284715845698802</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>146</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1661530554.332152</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3775907009.554176</v>
+        <v>4125755547.988913</v>
       </c>
       <c r="F100" t="n">
-        <v>0.121931086546099</v>
+        <v>0.1800391346533545</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02020807886091281</v>
+        <v>0.01849016576869817</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>141</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1887953557.580426</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3305872805.332407</v>
+        <v>3280808080.408157</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1878469993532553</v>
+        <v>0.1871622183463179</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05823343588700947</v>
+        <v>0.05640859254864</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>189</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1652936532.139762</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_461.xlsx
+++ b/output/fit_clients/fit_round_461.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1715315669.113485</v>
+        <v>2349378722.036298</v>
       </c>
       <c r="F2" t="n">
-        <v>0.112961460599711</v>
+        <v>0.1031116607081975</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0374603793032908</v>
+        <v>0.02999156789789389</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1737195880.827212</v>
+        <v>1815722516.947145</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1496858030441524</v>
+        <v>0.1713782195733661</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04399445182283428</v>
+        <v>0.0402570747303112</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4647856035.579911</v>
+        <v>3995804754.380137</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1415850525181016</v>
+        <v>0.162084197445071</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02351441109346071</v>
+        <v>0.03633227990468746</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2766866560.427404</v>
+        <v>3953498942.966884</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08107648130437897</v>
+        <v>0.08050540332071829</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03680368637843179</v>
+        <v>0.03998121769849716</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2249964798.073103</v>
+        <v>2841285251.873179</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1127865208157806</v>
+        <v>0.1026036532948885</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03674377456705206</v>
+        <v>0.03468325709609555</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2402487098.762773</v>
+        <v>2254926504.110959</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08495530096661219</v>
+        <v>0.09750177686509943</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04474654445337837</v>
+        <v>0.03149294339054767</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -654,16 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3366472626.692387</v>
+        <v>3104521525.080727</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2180302404235791</v>
+        <v>0.1561135474984952</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02604724767111565</v>
+        <v>0.0274506311358539</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1963704625.242129</v>
+        <v>2147204608.99212</v>
       </c>
       <c r="F9" t="n">
-        <v>0.155473987076627</v>
+        <v>0.1343853030005041</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02546636124440858</v>
+        <v>0.02593171425458534</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5645301280.211012</v>
+        <v>4224883495.618529</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2034978259830872</v>
+        <v>0.2148231059699457</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04552933484327075</v>
+        <v>0.03668192507579352</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2850087050.445586</v>
+        <v>3864013486.160914</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1261513088700133</v>
+        <v>0.1298876769448576</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04835520266815837</v>
+        <v>0.04475895443816492</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3243166819.248123</v>
+        <v>2750958957.472003</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1978475316482579</v>
+        <v>0.1695432169810703</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03548324897538212</v>
+        <v>0.03258767503957997</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5326873245.684625</v>
+        <v>5126401780.3867</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06839295516442696</v>
+        <v>0.0743676930831868</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02050751580923639</v>
+        <v>0.02773122804218399</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3709806536.909308</v>
+        <v>2817616093.121902</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1393727162445354</v>
+        <v>0.1815990001931631</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04169641685962507</v>
+        <v>0.04052602178342979</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1200059130.813608</v>
+        <v>1707300869.636394</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08835276910053151</v>
+        <v>0.08433893885724428</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04769746040752982</v>
+        <v>0.04709913194568046</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2122513051.442714</v>
+        <v>2050919756.432962</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09497119195081385</v>
+        <v>0.1079402935460854</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04574443356433659</v>
+        <v>0.04663493870846199</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3219968033.115091</v>
+        <v>3271512359.49426</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1177628027987191</v>
+        <v>0.14475532174589</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04981776353706234</v>
+        <v>0.04497825165313796</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -934,16 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3325960712.432165</v>
+        <v>2618626956.239226</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1807842063503062</v>
+        <v>0.1740257133438711</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0227141170251805</v>
+        <v>0.03361912651746425</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>967718109.1720635</v>
+        <v>949274958.2932529</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1406861030842406</v>
+        <v>0.1661938940297927</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01817809860937918</v>
+        <v>0.02366202688144231</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2610444465.624361</v>
+        <v>1827900351.990717</v>
       </c>
       <c r="F20" t="n">
-        <v>0.114922839001437</v>
+        <v>0.09822840243260281</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0200764381187466</v>
+        <v>0.02645703106552036</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1737768755.139513</v>
+        <v>2367798289.051709</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09135176408481244</v>
+        <v>0.09546399242001166</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03834989706468497</v>
+        <v>0.04124051206453092</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3616755922.601112</v>
+        <v>3213425223.280312</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1296922670358155</v>
+        <v>0.1295765788866223</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0515345707952234</v>
+        <v>0.03986258582131098</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1105172941.400021</v>
+        <v>1001226802.567089</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1274116940245739</v>
+        <v>0.125642600095302</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03728256677627066</v>
+        <v>0.03309343071024604</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3166118406.997467</v>
+        <v>2797120269.767305</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1344974301499667</v>
+        <v>0.112364281791876</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02340844203262785</v>
+        <v>0.03687708812842566</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1227097058.782457</v>
+        <v>1210986497.79203</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08143214738455753</v>
+        <v>0.08666726438569951</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02860588707981285</v>
+        <v>0.02321917586937501</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1099758026.724898</v>
+        <v>1253793160.33945</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1044558109754561</v>
+        <v>0.081627385163037</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03207245680634772</v>
+        <v>0.03526733214553864</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4437689402.19319</v>
+        <v>4508364299.845962</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1482542339034225</v>
+        <v>0.1153647815114168</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02478627107386691</v>
+        <v>0.02077628096306413</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3168260671.563327</v>
+        <v>3593465784.967398</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1379738520677821</v>
+        <v>0.1245946074038078</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03280364065018877</v>
+        <v>0.03101866837081598</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4206389267.351113</v>
+        <v>5072821110.458139</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1122558323945673</v>
+        <v>0.1214713322287847</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03781165184190077</v>
+        <v>0.03279847431485603</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2071663985.002352</v>
+        <v>1686960836.211568</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08900838512963988</v>
+        <v>0.1015611169884538</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03807590615266467</v>
+        <v>0.0301458227368155</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1340265173.51577</v>
+        <v>1105025745.315295</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07047530072984137</v>
+        <v>0.111955632928773</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04264142744398276</v>
+        <v>0.0443044172959035</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1633814548.920603</v>
+        <v>1663112873.470118</v>
       </c>
       <c r="F32" t="n">
-        <v>0.10730556983669</v>
+        <v>0.09268516386834151</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02675042526362259</v>
+        <v>0.03112487957529229</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2183494051.74578</v>
+        <v>2652561759.109233</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2001255476920291</v>
+        <v>0.2042050292148312</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04130929883676842</v>
+        <v>0.05191886961957658</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1266268542.411942</v>
+        <v>1402192859.207695</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09611744831186923</v>
+        <v>0.1109890816132111</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02058396015509985</v>
+        <v>0.02225196564541835</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1130973324.711743</v>
+        <v>919606179.7923704</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1065609935686444</v>
+        <v>0.0919624294895721</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04492416166445252</v>
+        <v>0.03278640454174653</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2045934256.568848</v>
+        <v>2769923391.547497</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1771545448104925</v>
+        <v>0.1761637182903176</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0212304997432689</v>
+        <v>0.01755359678891136</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1771355625.947609</v>
+        <v>2550157229.430142</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09721619587910253</v>
+        <v>0.1017868105291158</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02655242000357482</v>
+        <v>0.03377493391558809</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1891240551.29233</v>
+        <v>1410483409.885251</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07477947270414362</v>
+        <v>0.07857562382148137</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03760728228721892</v>
+        <v>0.02701296695777117</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2187254992.773054</v>
+        <v>1861541158.369712</v>
       </c>
       <c r="F39" t="n">
-        <v>0.188414014076249</v>
+        <v>0.1195313971733487</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0308068922286648</v>
+        <v>0.0261961096294116</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1482969997.811414</v>
+        <v>1442829715.005922</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1285731290198364</v>
+        <v>0.1066912831628549</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05668799572098435</v>
+        <v>0.05141807347897788</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1828690289.798181</v>
+        <v>2920515300.138864</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1083704147209158</v>
+        <v>0.1462267616775166</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03495000374312419</v>
+        <v>0.03708445790568931</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3177260435.656065</v>
+        <v>2967878800.514702</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09287077499004326</v>
+        <v>0.07971283327225406</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04501476979656514</v>
+        <v>0.04398571381724327</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2872136058.065992</v>
+        <v>3000064113.241599</v>
       </c>
       <c r="F43" t="n">
-        <v>0.192661518523169</v>
+        <v>0.2041503298370504</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02298593560142397</v>
+        <v>0.02324997397510242</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1725353258.249939</v>
+        <v>2104446364.673023</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08332370816680312</v>
+        <v>0.1019620591511728</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03583426359735729</v>
+        <v>0.02827053519381291</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2239389658.132792</v>
+        <v>2181300167.47204</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1447625480030735</v>
+        <v>0.1673718389257763</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04161580490464961</v>
+        <v>0.03970080291660772</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3515591174.582717</v>
+        <v>5464042329.714331</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1386553130639566</v>
+        <v>0.1546894383846912</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04275347737040205</v>
+        <v>0.05403401431610943</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4142303486.647565</v>
+        <v>4903015650.393874</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1453341244341284</v>
+        <v>0.150407444403708</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05584688528202979</v>
+        <v>0.05321748315145609</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3863726511.700311</v>
+        <v>3244629831.27369</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1101762840424126</v>
+        <v>0.09636763577331435</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03188335612829458</v>
+        <v>0.02609128282281842</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1367852596.447129</v>
+        <v>1510823474.329772</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1723339313385873</v>
+        <v>0.1195631693949154</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03561139207841332</v>
+        <v>0.03826851838953574</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2808312973.368983</v>
+        <v>3084135514.982284</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1728426691546432</v>
+        <v>0.1351848717086952</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0381694537476025</v>
+        <v>0.03337336974495617</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1492333717.125844</v>
+        <v>1188925721.995389</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1877007610930579</v>
+        <v>0.1876199659528167</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03805049280052981</v>
+        <v>0.03797518647664436</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3515607315.335914</v>
+        <v>4881566182.438822</v>
       </c>
       <c r="F52" t="n">
-        <v>0.10088366059513</v>
+        <v>0.1029203697230087</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04965185704329606</v>
+        <v>0.0599556597993259</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3198071568.779705</v>
+        <v>3729030010.72963</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1778761031687397</v>
+        <v>0.1582695747047231</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03377020457739208</v>
+        <v>0.03184368806372326</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3650147034.086492</v>
+        <v>3108185791.2163</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1597898134523192</v>
+        <v>0.1107760157963358</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0494916409213831</v>
+        <v>0.04726212390973279</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3417087004.986075</v>
+        <v>3658170505.519701</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1615299287861293</v>
+        <v>0.146765793671968</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03247283622813304</v>
+        <v>0.0326178292398435</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1564670303.316355</v>
+        <v>1705897350.139205</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1549534810353637</v>
+        <v>0.1402152696247068</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04105712216487507</v>
+        <v>0.04559878637213218</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3935961161.915959</v>
+        <v>2873455859.057217</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1127786440248187</v>
+        <v>0.1161826140083707</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02193306367962162</v>
+        <v>0.02754964838624906</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1642337549.782164</v>
+        <v>1250319237.987202</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1901130620937286</v>
+        <v>0.1916837420165798</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03809383903211318</v>
+        <v>0.03042165594059557</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4689305484.50255</v>
+        <v>3793083843.444741</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1024086631956598</v>
+        <v>0.09188003217390664</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03241151870601001</v>
+        <v>0.0315097159124148</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2559233284.115977</v>
+        <v>3006142662.972147</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1686586497228701</v>
+        <v>0.1642068127146143</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02216916401578073</v>
+        <v>0.02176165221724445</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3273580105.002768</v>
+        <v>2099706587.504439</v>
       </c>
       <c r="F61" t="n">
-        <v>0.134592470627318</v>
+        <v>0.147073168714419</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02446632558496313</v>
+        <v>0.03117374002159603</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1328586163.956673</v>
+        <v>1611749272.326613</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1566707346077173</v>
+        <v>0.1433131916632876</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03420646072525344</v>
+        <v>0.04607304951594433</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4968581110.028445</v>
+        <v>5068795548.473985</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06899952029018767</v>
+        <v>0.1068201852293179</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04092233100683239</v>
+        <v>0.03656667855549201</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4191714785.437548</v>
+        <v>5548227660.584353</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1380716919102751</v>
+        <v>0.1419768083771133</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02468678501778762</v>
+        <v>0.02169631022091154</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5847448989.636111</v>
+        <v>4329114416.005561</v>
       </c>
       <c r="F65" t="n">
-        <v>0.142066226159249</v>
+        <v>0.1144888981829597</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02580663932739262</v>
+        <v>0.03095044566395589</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4035311019.116439</v>
+        <v>3963603612.116925</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1610415851968003</v>
+        <v>0.1060432212151135</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03345659733291712</v>
+        <v>0.03827130197720631</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3240563984.993391</v>
+        <v>3461554083.446743</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06314759299762759</v>
+        <v>0.08236110052195078</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03997463547658618</v>
+        <v>0.04644290058634314</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5451373287.85113</v>
+        <v>5577568898.38318</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1480536046923852</v>
+        <v>0.1229400321344264</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04788050474436725</v>
+        <v>0.04733383615655171</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2432563662.211319</v>
+        <v>2222601772.353356</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1689869484351076</v>
+        <v>0.1800556811898837</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04854436442908911</v>
+        <v>0.04561049142100017</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3302301935.110502</v>
+        <v>3060198764.887359</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07247529088309537</v>
+        <v>0.08525615840856869</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03541711185088587</v>
+        <v>0.04528958196317721</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3947146042.289541</v>
+        <v>4129967007.00829</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1129068315901799</v>
+        <v>0.1711932600810149</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03087290949517164</v>
+        <v>0.02787710920954929</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2030387757.02748</v>
+        <v>1698568768.789213</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06611311553045357</v>
+        <v>0.08159158693407824</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04541820343658429</v>
+        <v>0.0379587720167642</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3234425399.446521</v>
+        <v>3286621404.263594</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09131879081151194</v>
+        <v>0.1021014317706326</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03825846773487879</v>
+        <v>0.04618615870108821</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3782721822.701951</v>
+        <v>3149334651.434568</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1302050412239324</v>
+        <v>0.1711898953528352</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03173850197978368</v>
+        <v>0.02472076422299961</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1888733175.728202</v>
+        <v>2179024471.576858</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1238869392837992</v>
+        <v>0.1640586841856504</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02726776089013942</v>
+        <v>0.02871549727971304</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4179127233.369125</v>
+        <v>4384809305.147661</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07844492894079541</v>
+        <v>0.08010013656308698</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02944724928400992</v>
+        <v>0.03305788752521158</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1506210886.226818</v>
+        <v>1439200128.150313</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1165261515111922</v>
+        <v>0.1505185241566321</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02357997225143589</v>
+        <v>0.02947051471487997</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4363009612.942119</v>
+        <v>3162463203.437943</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1013398269520351</v>
+        <v>0.09684862098577385</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04326668659885798</v>
+        <v>0.05357542523729598</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1534144320.097325</v>
+        <v>1922740195.066507</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1307387574217896</v>
+        <v>0.1725671215065006</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03341467019022559</v>
+        <v>0.03425429976470695</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3545855932.176882</v>
+        <v>5013702625.401203</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07517195859954236</v>
+        <v>0.08982328587973157</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02829141972457657</v>
+        <v>0.02746132250636927</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4597620502.175831</v>
+        <v>4458418914.548984</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08352378159737017</v>
+        <v>0.09478452037009721</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02667279768163117</v>
+        <v>0.03262287283163591</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3491909122.513752</v>
+        <v>4718570117.066126</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1747308457120168</v>
+        <v>0.186729006033954</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02646712999634309</v>
+        <v>0.02733806991598606</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1883412946.547469</v>
+        <v>1947802423.294112</v>
       </c>
       <c r="F83" t="n">
-        <v>0.100896851595734</v>
+        <v>0.09993635697786564</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03288600380310931</v>
+        <v>0.02991717367670748</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2390504080.643764</v>
+        <v>1802944029.532943</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09986256050558943</v>
+        <v>0.1073068496205841</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0388778707906337</v>
+        <v>0.04432824538162027</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3201678881.441576</v>
+        <v>3242055677.8154</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1762516797864141</v>
+        <v>0.1456492378799532</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0378939836009653</v>
+        <v>0.03557410557786679</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2709965755.586695</v>
+        <v>2699153282.523553</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1109620932904665</v>
+        <v>0.1179578839510184</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01755460206093767</v>
+        <v>0.02250743345442536</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1162133165.20072</v>
+        <v>1098838995.137321</v>
       </c>
       <c r="F87" t="n">
-        <v>0.144429890577166</v>
+        <v>0.1618128350708246</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0355821759298337</v>
+        <v>0.02833681774512285</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3137498806.990916</v>
+        <v>3048498661.290179</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1697574767245727</v>
+        <v>0.1404483917279592</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02688204199513623</v>
+        <v>0.0391185703508417</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2250604240.960864</v>
+        <v>2266815312.980818</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1515957001901383</v>
+        <v>0.1049001173318704</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03278314976506264</v>
+        <v>0.03206902906008016</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1838062142.692993</v>
+        <v>2048099196.03822</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1137242581639025</v>
+        <v>0.1175298789677503</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03680254162882403</v>
+        <v>0.05373757959249956</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1728654985.213318</v>
+        <v>1554266145.482942</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1741118068610498</v>
+        <v>0.1388766021787332</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04047109114438643</v>
+        <v>0.03897880054095994</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2449896258.006165</v>
+        <v>2012321422.513833</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09791539899845714</v>
+        <v>0.08434705330050235</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03183492293383094</v>
+        <v>0.04555301174263845</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4923653098.201234</v>
+        <v>4594681805.04134</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1398492392608558</v>
+        <v>0.1203428646159302</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04217433008825862</v>
+        <v>0.03654988014393416</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1917055905.083228</v>
+        <v>1747066646.944997</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1095670393777294</v>
+        <v>0.1493855785296726</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02934070595778695</v>
+        <v>0.03386994618048399</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3023622688.199109</v>
+        <v>2063422637.061757</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1218952294984648</v>
+        <v>0.09915986808611214</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03935634465817595</v>
+        <v>0.03372824436633348</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2178316307.690836</v>
+        <v>2073153166.113753</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1061476661314763</v>
+        <v>0.134574982906008</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03680499133047692</v>
+        <v>0.03388407767761262</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3439191106.74847</v>
+        <v>4490285255.24091</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1191406157087816</v>
+        <v>0.117937091984569</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0202601271245228</v>
+        <v>0.01863869104905664</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3863134821.267109</v>
+        <v>3603297556.245188</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1038483269817529</v>
+        <v>0.1010128837371212</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03136227114479976</v>
+        <v>0.02303337032943803</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3195784061.438854</v>
+        <v>2633818901.737873</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1118939872054275</v>
+        <v>0.09065088151925955</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0284715845698802</v>
+        <v>0.02850564540202695</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4125755547.988913</v>
+        <v>3519583917.744284</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1800391346533545</v>
+        <v>0.130785197019474</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01849016576869817</v>
+        <v>0.02517037117603508</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3280808080.408157</v>
+        <v>2416895537.194959</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1871622183463179</v>
+        <v>0.1607465990433929</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05640859254864</v>
+        <v>0.03608407949847162</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_461.xlsx
+++ b/output/fit_clients/fit_round_461.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2349378722.036298</v>
+        <v>2324641813.574913</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1031116607081975</v>
+        <v>0.1059896616804257</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02999156789789389</v>
+        <v>0.04367477869621374</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1815722516.947145</v>
+        <v>1707779974.182834</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1713782195733661</v>
+        <v>0.1561421880979109</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0402570747303112</v>
+        <v>0.03375474630682709</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3995804754.380137</v>
+        <v>4197059474.081562</v>
       </c>
       <c r="F4" t="n">
-        <v>0.162084197445071</v>
+        <v>0.1294665965787871</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03633227990468746</v>
+        <v>0.03771028114826963</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>234</v>
+      </c>
+      <c r="J4" t="n">
+        <v>460</v>
+      </c>
+      <c r="K4" t="n">
+        <v>30.12863821782138</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3953498942.966884</v>
+        <v>3810770444.199837</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08050540332071829</v>
+        <v>0.1083092065042937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03998121769849716</v>
+        <v>0.03802649821968584</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>193</v>
+      </c>
+      <c r="J5" t="n">
+        <v>461</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2841285251.873179</v>
+        <v>2505446933.424066</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1026036532948885</v>
+        <v>0.1004591826490733</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03468325709609555</v>
+        <v>0.03907151062842878</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2254926504.110959</v>
+        <v>3081663990.979077</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09750177686509943</v>
+        <v>0.07739667051199849</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03149294339054767</v>
+        <v>0.04390313028122666</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3104521525.080727</v>
+        <v>3126970241.764665</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1561135474984952</v>
+        <v>0.1479273429714873</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0274506311358539</v>
+        <v>0.02566880098517055</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>130</v>
+      </c>
+      <c r="J8" t="n">
+        <v>458</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2147204608.99212</v>
+        <v>1783116829.501689</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1343853030005041</v>
+        <v>0.1801429323448201</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02593171425458534</v>
+        <v>0.03574056660133815</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4224883495.618529</v>
+        <v>4643400186.266741</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2148231059699457</v>
+        <v>0.1656438544637246</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03668192507579352</v>
+        <v>0.05138759101361298</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>356</v>
+      </c>
+      <c r="J10" t="n">
+        <v>460</v>
+      </c>
+      <c r="K10" t="n">
+        <v>31.36745906745488</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3864013486.160914</v>
+        <v>3910514445.76238</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1298876769448576</v>
+        <v>0.1255343295471024</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04475895443816492</v>
+        <v>0.03519014342552509</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>191</v>
+      </c>
+      <c r="J11" t="n">
+        <v>461</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2750958957.472003</v>
+        <v>2475812135.451164</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1695432169810703</v>
+        <v>0.1682309848357351</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03258767503957997</v>
+        <v>0.04915818978503247</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5126401780.3867</v>
+        <v>4937494311.611127</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0743676930831868</v>
+        <v>0.0798088323137784</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02773122804218399</v>
+        <v>0.02740382513544588</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>239</v>
+      </c>
+      <c r="J13" t="n">
+        <v>461</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +919,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2817616093.121902</v>
+        <v>3882684973.555523</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1815990001931631</v>
+        <v>0.1849310672993296</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04052602178342979</v>
+        <v>0.03241563489441394</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>102</v>
+      </c>
+      <c r="J14" t="n">
+        <v>461</v>
+      </c>
+      <c r="K14" t="n">
+        <v>44.76917454736184</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1707300869.636394</v>
+        <v>1663871694.626588</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08433893885724428</v>
+        <v>0.09911232030109036</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04709913194568046</v>
+        <v>0.03172956252869973</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2050919756.432962</v>
+        <v>2321850283.573523</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1079402935460854</v>
+        <v>0.07991543757759599</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04663493870846199</v>
+        <v>0.04777788769535645</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3271512359.49426</v>
+        <v>4748631809.568146</v>
       </c>
       <c r="F17" t="n">
-        <v>0.14475532174589</v>
+        <v>0.1399261361729367</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04497825165313796</v>
+        <v>0.04080852428695462</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>225</v>
+      </c>
+      <c r="J17" t="n">
+        <v>461</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1067,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2618626956.239226</v>
+        <v>3973776055.012538</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1740257133438711</v>
+        <v>0.1799330426347416</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03361912651746425</v>
+        <v>0.02608688576184428</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>122</v>
+      </c>
+      <c r="J18" t="n">
+        <v>461</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>949274958.2932529</v>
+        <v>827517142.2319394</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1661938940297927</v>
+        <v>0.1584242859818722</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02366202688144231</v>
+        <v>0.01904150516420156</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1827900351.990717</v>
+        <v>2088726652.675684</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09822840243260281</v>
+        <v>0.1205288955993447</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02645703106552036</v>
+        <v>0.02476118792444496</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2367798289.051709</v>
+        <v>2208919271.509325</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09546399242001166</v>
+        <v>0.08665112264609169</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04124051206453092</v>
+        <v>0.03217309321917575</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3213425223.280312</v>
+        <v>2589542662.919434</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1295765788866223</v>
+        <v>0.1335484283108423</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03986258582131098</v>
+        <v>0.03699993711148169</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>132</v>
+      </c>
+      <c r="J22" t="n">
+        <v>458</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1001226802.567089</v>
+        <v>1381713638.244671</v>
       </c>
       <c r="F23" t="n">
-        <v>0.125642600095302</v>
+        <v>0.1208319683936227</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03309343071024604</v>
+        <v>0.03368755337277612</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2797120269.767305</v>
+        <v>3081456766.706902</v>
       </c>
       <c r="F24" t="n">
-        <v>0.112364281791876</v>
+        <v>0.1151787130167681</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03687708812842566</v>
+        <v>0.02522108478163161</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>146</v>
+      </c>
+      <c r="J24" t="n">
+        <v>459</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1210986497.79203</v>
+        <v>1373505990.191614</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08666726438569951</v>
+        <v>0.09728362099053643</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02321917586937501</v>
+        <v>0.0199433629301247</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1253793160.33945</v>
+        <v>895006903.8034072</v>
       </c>
       <c r="F26" t="n">
-        <v>0.081627385163037</v>
+        <v>0.1172629738076235</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03526733214553864</v>
+        <v>0.02707522640968057</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1382,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4508364299.845962</v>
+        <v>4681100146.624115</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1153647815114168</v>
+        <v>0.1341749414506922</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02077628096306413</v>
+        <v>0.02246942939388524</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>202</v>
+      </c>
+      <c r="J27" t="n">
+        <v>461</v>
+      </c>
+      <c r="K27" t="n">
+        <v>34.58098238002237</v>
       </c>
     </row>
     <row r="28">
@@ -1214,16 +1419,25 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3593465784.967398</v>
+        <v>2900484129.841955</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1245946074038078</v>
+        <v>0.1193340481359765</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03101866837081598</v>
+        <v>0.04576077663379993</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>114</v>
+      </c>
+      <c r="J28" t="n">
+        <v>460</v>
+      </c>
+      <c r="K28" t="n">
+        <v>24.78440157690965</v>
       </c>
     </row>
     <row r="29">
@@ -1236,23 +1450,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5072821110.458139</v>
+        <v>5229668677.599228</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1214713322287847</v>
+        <v>0.1245830422419869</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03279847431485603</v>
+        <v>0.03149178261806201</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>371</v>
+      </c>
+      <c r="J29" t="n">
+        <v>461</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1686960836.211568</v>
+        <v>2204015331.066472</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1015611169884538</v>
+        <v>0.1046836179102813</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0301458227368155</v>
+        <v>0.03269034721596847</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1526,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1105025745.315295</v>
+        <v>911511466.5405633</v>
       </c>
       <c r="F31" t="n">
-        <v>0.111955632928773</v>
+        <v>0.09660689794089869</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0443044172959035</v>
+        <v>0.04639437787312698</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1663112873.470118</v>
+        <v>1569058834.05557</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09268516386834151</v>
+        <v>0.08593959430435091</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03112487957529229</v>
+        <v>0.03515681624476672</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2652561759.109233</v>
+        <v>2260832273.449246</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2042050292148312</v>
+        <v>0.2062779242154645</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05191886961957658</v>
+        <v>0.0548113829180941</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1402192859.207695</v>
+        <v>1180350274.421727</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1109890816132111</v>
+        <v>0.1097748158710059</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02225196564541835</v>
+        <v>0.02345721708330903</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>919606179.7923704</v>
+        <v>1294956704.168324</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0919624294895721</v>
+        <v>0.07799322203242683</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03278640454174653</v>
+        <v>0.03301034810367946</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1701,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2769923391.547497</v>
+        <v>3203298089.890069</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1761637182903176</v>
+        <v>0.1198798672285866</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01755359678891136</v>
+        <v>0.02225865087973116</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2550157229.430142</v>
+        <v>2047179406.68569</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1017868105291158</v>
+        <v>0.09906408822136367</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03377493391558809</v>
+        <v>0.03540144279441453</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1410483409.885251</v>
+        <v>1562953204.434962</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07857562382148137</v>
+        <v>0.1096945123098675</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02701296695777117</v>
+        <v>0.03701434781138521</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1806,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1861541158.369712</v>
+        <v>1499359690.555126</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1195313971733487</v>
+        <v>0.1855892287366161</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0261961096294116</v>
+        <v>0.02252859097028743</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1442829715.005922</v>
+        <v>1174486491.138437</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1066912831628549</v>
+        <v>0.1480192848919974</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05141807347897788</v>
+        <v>0.05120466092128441</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2920515300.138864</v>
+        <v>2399508869.302714</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1462267616775166</v>
+        <v>0.1170034620416582</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03708445790568931</v>
+        <v>0.0301652975817388</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2967878800.514702</v>
+        <v>2986679525.552781</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07971283327225406</v>
+        <v>0.07900193228517326</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04398571381724327</v>
+        <v>0.04625883122568272</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>202</v>
+      </c>
+      <c r="J42" t="n">
+        <v>459</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3000064113.241599</v>
+        <v>2751586999.303789</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2041503298370504</v>
+        <v>0.143904192931118</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02324997397510242</v>
+        <v>0.02054509267271512</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2104446364.673023</v>
+        <v>1979709111.368495</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1019620591511728</v>
+        <v>0.06435392887735006</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02827053519381291</v>
+        <v>0.02421585218582932</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2181300167.47204</v>
+        <v>2021029978.316325</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1673718389257763</v>
+        <v>0.1452941278135833</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03970080291660772</v>
+        <v>0.04456250935695989</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2045,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5464042329.714331</v>
+        <v>5458966935.422304</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1546894383846912</v>
+        <v>0.1584835084231782</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05403401431610943</v>
+        <v>0.05285763621003765</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>273</v>
+      </c>
+      <c r="J46" t="n">
+        <v>461</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,16 +2086,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4903015650.393874</v>
+        <v>3815493622.210389</v>
       </c>
       <c r="F47" t="n">
-        <v>0.150407444403708</v>
+        <v>0.1469803651826247</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05321748315145609</v>
+        <v>0.04921331844960048</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>208</v>
+      </c>
+      <c r="J47" t="n">
+        <v>460</v>
+      </c>
+      <c r="K47" t="n">
+        <v>26.76144465653009</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +2123,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3244629831.27369</v>
+        <v>4485737716.127544</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09636763577331435</v>
+        <v>0.08786720098251552</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02609128282281842</v>
+        <v>0.03811710518125121</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>230</v>
+      </c>
+      <c r="J48" t="n">
+        <v>461</v>
+      </c>
+      <c r="K48" t="n">
+        <v>37.45999324468242</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1510823474.329772</v>
+        <v>1730105095.879251</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1195631693949154</v>
+        <v>0.1678758326726362</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03826851838953574</v>
+        <v>0.0391110957930127</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3084135514.982284</v>
+        <v>3867500415.388763</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1351848717086952</v>
+        <v>0.1750974194726823</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03337336974495617</v>
+        <v>0.05167685615309648</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>164</v>
+      </c>
+      <c r="J50" t="n">
+        <v>461</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2230,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1188925721.995389</v>
+        <v>1147833664.502168</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1876199659528167</v>
+        <v>0.1487236151566592</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03797518647664436</v>
+        <v>0.04809965173431039</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2259,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4881566182.438822</v>
+        <v>4733009146.731097</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1029203697230087</v>
+        <v>0.1140473326431365</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0599556597993259</v>
+        <v>0.04325107066573585</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>261</v>
+      </c>
+      <c r="J52" t="n">
+        <v>461</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2300,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3729030010.72963</v>
+        <v>3709521191.442608</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1582695747047231</v>
+        <v>0.1553173111901741</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03184368806372326</v>
+        <v>0.02417722747729211</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>71</v>
+      </c>
+      <c r="J53" t="n">
+        <v>457</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2329,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3108185791.2163</v>
+        <v>4930317813.209383</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1107760157963358</v>
+        <v>0.1475567294288816</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04726212390973279</v>
+        <v>0.0325046078025452</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>244</v>
+      </c>
+      <c r="J54" t="n">
+        <v>461</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2364,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3658170505.519701</v>
+        <v>4334972571.936936</v>
       </c>
       <c r="F55" t="n">
-        <v>0.146765793671968</v>
+        <v>0.1360291215215463</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0326178292398435</v>
+        <v>0.03214934500946711</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>229</v>
+      </c>
+      <c r="J55" t="n">
+        <v>461</v>
+      </c>
+      <c r="K55" t="n">
+        <v>37.49026181499799</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2407,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1705897350.139205</v>
+        <v>1684974859.253159</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1402152696247068</v>
+        <v>0.1400056030017883</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04559878637213218</v>
+        <v>0.04531397286402074</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2436,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2873455859.057217</v>
+        <v>3772537544.115744</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1161826140083707</v>
+        <v>0.1336738408467966</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02754964838624906</v>
+        <v>0.02140531004662911</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>197</v>
+      </c>
+      <c r="J57" t="n">
+        <v>460</v>
+      </c>
+      <c r="K57" t="n">
+        <v>30.92174417297601</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2479,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1250319237.987202</v>
+        <v>1334201559.056478</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1916837420165798</v>
+        <v>0.1531670623334624</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03042165594059557</v>
+        <v>0.03029715516652423</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3793083843.444741</v>
+        <v>5046867641.136628</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09188003217390664</v>
+        <v>0.103336646659607</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0315097159124148</v>
+        <v>0.0471206411744804</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>226</v>
+      </c>
+      <c r="J59" t="n">
+        <v>460</v>
+      </c>
+      <c r="K59" t="n">
+        <v>32.31188631004167</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3006142662.972147</v>
+        <v>2729592403.429007</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1642068127146143</v>
+        <v>0.1919312216123836</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02176165221724445</v>
+        <v>0.02756579840895745</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>88</v>
+      </c>
+      <c r="J60" t="n">
+        <v>454</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2099706587.504439</v>
+        <v>3043623310.349539</v>
       </c>
       <c r="F61" t="n">
-        <v>0.147073168714419</v>
+        <v>0.1680688924030838</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03117374002159603</v>
+        <v>0.03072945693842607</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1611749272.326613</v>
+        <v>1952714226.828212</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1433131916632876</v>
+        <v>0.144938563763269</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04607304951594433</v>
+        <v>0.04039202530975054</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2650,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5068795548.473985</v>
+        <v>3959998103.485779</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1068201852293179</v>
+        <v>0.1049101135747026</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03656667855549201</v>
+        <v>0.04194074296753514</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>231</v>
+      </c>
+      <c r="J63" t="n">
+        <v>460</v>
+      </c>
+      <c r="K63" t="n">
+        <v>26.72924378183705</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5548227660.584353</v>
+        <v>4982979086.641358</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1419768083771133</v>
+        <v>0.1838555755022274</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02169631022091154</v>
+        <v>0.02751523264181064</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>231</v>
+      </c>
+      <c r="J64" t="n">
+        <v>460</v>
+      </c>
+      <c r="K64" t="n">
+        <v>30.89370005658979</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4329114416.005561</v>
+        <v>3923134901.7903</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1144888981829597</v>
+        <v>0.1469891724120064</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03095044566395589</v>
+        <v>0.03109358036962167</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>328</v>
+      </c>
+      <c r="J65" t="n">
+        <v>460</v>
+      </c>
+      <c r="K65" t="n">
+        <v>25.72844499931655</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3963603612.116925</v>
+        <v>4364051878.939688</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1060432212151135</v>
+        <v>0.1453463807971019</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03827130197720631</v>
+        <v>0.03521691900113508</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>227</v>
+      </c>
+      <c r="J66" t="n">
+        <v>461</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3461554083.446743</v>
+        <v>3168523829.654811</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08236110052195078</v>
+        <v>0.064134129006733</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04644290058634314</v>
+        <v>0.03209890511612556</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>456</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2831,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5577568898.38318</v>
+        <v>4300420521.038816</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1229400321344264</v>
+        <v>0.112673722665623</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04733383615655171</v>
+        <v>0.03528489835635341</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>250</v>
+      </c>
+      <c r="J68" t="n">
+        <v>461</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2222601772.353356</v>
+        <v>2265470815.755881</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1800556811898837</v>
+        <v>0.1823316134934152</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04561049142100017</v>
+        <v>0.04812228439148748</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3060198764.887359</v>
+        <v>2294199213.600585</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08525615840856869</v>
+        <v>0.0978413036749151</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04528958196317721</v>
+        <v>0.04403737094118049</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>67</v>
+      </c>
+      <c r="J70" t="n">
+        <v>459</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2942,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4129967007.00829</v>
+        <v>4829332778.590237</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1711932600810149</v>
+        <v>0.153552495527465</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02787710920954929</v>
+        <v>0.02444472171166499</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>314</v>
+      </c>
+      <c r="J71" t="n">
+        <v>461</v>
+      </c>
+      <c r="K71" t="n">
+        <v>33.97555796702135</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2979,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1698568768.789213</v>
+        <v>1944891626.878958</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08159158693407824</v>
+        <v>0.08574868894067231</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0379587720167642</v>
+        <v>0.04267943394640078</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3014,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3286621404.263594</v>
+        <v>3018589321.69354</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1021014317706326</v>
+        <v>0.08777135115077628</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04618615870108821</v>
+        <v>0.03320737858300624</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>37</v>
+      </c>
+      <c r="J73" t="n">
+        <v>454</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3149334651.434568</v>
+        <v>2672406922.422062</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1711898953528352</v>
+        <v>0.1436841922524074</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02472076422299961</v>
+        <v>0.02804086485832692</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>134</v>
+      </c>
+      <c r="J74" t="n">
+        <v>457</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2179024471.576858</v>
+        <v>2394389103.585924</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1640586841856504</v>
+        <v>0.1330291165697951</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02871549727971304</v>
+        <v>0.02603137861453395</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3113,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4384809305.147661</v>
+        <v>5099898314.793993</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08010013656308698</v>
+        <v>0.08756537771395645</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03305788752521158</v>
+        <v>0.02753365060159559</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>220</v>
+      </c>
+      <c r="J76" t="n">
+        <v>461</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1439200128.150313</v>
+        <v>1915249928.79508</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1505185241566321</v>
+        <v>0.1335444142473752</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02947051471487997</v>
+        <v>0.0302396973502504</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3162463203.437943</v>
+        <v>4273523730.240472</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09684862098577385</v>
+        <v>0.1266756467640268</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05357542523729598</v>
+        <v>0.05143659179336196</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>230</v>
+      </c>
+      <c r="J78" t="n">
+        <v>460</v>
+      </c>
+      <c r="K78" t="n">
+        <v>33.35423735425431</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1922740195.066507</v>
+        <v>1300426111.369672</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1725671215065006</v>
+        <v>0.1119219272796694</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03425429976470695</v>
+        <v>0.0383912580821135</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5013702625.401203</v>
+        <v>5207783101.965895</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08982328587973157</v>
+        <v>0.09630587740354087</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02746132250636927</v>
+        <v>0.03786062798777711</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>225</v>
+      </c>
+      <c r="J80" t="n">
+        <v>460</v>
+      </c>
+      <c r="K80" t="n">
+        <v>30.82279009832417</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +3298,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4458418914.548984</v>
+        <v>3517490319.328158</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09478452037009721</v>
+        <v>0.104885346472439</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03262287283163591</v>
+        <v>0.02004802276332493</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>215</v>
+      </c>
+      <c r="J81" t="n">
+        <v>460</v>
+      </c>
+      <c r="K81" t="n">
+        <v>21.22177096357055</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3329,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4718570117.066126</v>
+        <v>3746373177.221145</v>
       </c>
       <c r="F82" t="n">
-        <v>0.186729006033954</v>
+        <v>0.1492579856278875</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02733806991598606</v>
+        <v>0.01905717976716209</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>306</v>
+      </c>
+      <c r="J82" t="n">
+        <v>461</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1947802423.294112</v>
+        <v>1827112711.519658</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09993635697786564</v>
+        <v>0.1569469381380592</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02991717367670748</v>
+        <v>0.03927858677281591</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1802944029.532943</v>
+        <v>2355879388.812479</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1073068496205841</v>
+        <v>0.1131164939433215</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04432824538162027</v>
+        <v>0.0349974407444</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3242055677.8154</v>
+        <v>2217474546.71905</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1456492378799532</v>
+        <v>0.1313045594569658</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03557410557786679</v>
+        <v>0.05474301531915985</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>65</v>
+      </c>
+      <c r="J85" t="n">
+        <v>452</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2699153282.523553</v>
+        <v>1887384526.966739</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1179578839510184</v>
+        <v>0.1475020397377866</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02250743345442536</v>
+        <v>0.02549250796473048</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1098838995.137321</v>
+        <v>1003627105.156145</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1618128350708246</v>
+        <v>0.1263645624696973</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02833681774512285</v>
+        <v>0.03539287408921687</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3048498661.290179</v>
+        <v>2285765274.33358</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1404483917279592</v>
+        <v>0.1244619195099731</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0391185703508417</v>
+        <v>0.02752502511814493</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>61</v>
+      </c>
+      <c r="J88" t="n">
+        <v>449</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2266815312.980818</v>
+        <v>2453073463.102817</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1049001173318704</v>
+        <v>0.1559969100131121</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03206902906008016</v>
+        <v>0.02940874997476211</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3615,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2048099196.03822</v>
+        <v>1621298894.198802</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1175298789677503</v>
+        <v>0.1190611678213111</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05373757959249956</v>
+        <v>0.04119205697306842</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3650,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1554266145.482942</v>
+        <v>1793345389.405762</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1388766021787332</v>
+        <v>0.1747851250790296</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03897880054095994</v>
+        <v>0.0382449706050642</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2012321422.513833</v>
+        <v>2279172186.526818</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08434705330050235</v>
+        <v>0.09571003403121085</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04555301174263845</v>
+        <v>0.03121953499114652</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4594681805.04134</v>
+        <v>4461912313.808128</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1203428646159302</v>
+        <v>0.09090412669599361</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03654988014393416</v>
+        <v>0.0334476306960075</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>222</v>
+      </c>
+      <c r="J93" t="n">
+        <v>460</v>
+      </c>
+      <c r="K93" t="n">
+        <v>31.90935112394023</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1747066646.944997</v>
+        <v>1563952074.2617</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1493855785296726</v>
+        <v>0.1414133958966309</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03386994618048399</v>
+        <v>0.03681609145400868</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2063422637.061757</v>
+        <v>3163763560.853802</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09915986808611214</v>
+        <v>0.1251082494044633</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03372824436633348</v>
+        <v>0.04232981336414045</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2073153166.113753</v>
+        <v>1789466547.355261</v>
       </c>
       <c r="F96" t="n">
-        <v>0.134574982906008</v>
+        <v>0.08813863025251173</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03388407767761262</v>
+        <v>0.03361843991422959</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4490285255.24091</v>
+        <v>4382932833.268526</v>
       </c>
       <c r="F97" t="n">
-        <v>0.117937091984569</v>
+        <v>0.1171763517054696</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01863869104905664</v>
+        <v>0.02919182553082606</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>240</v>
+      </c>
+      <c r="J97" t="n">
+        <v>460</v>
+      </c>
+      <c r="K97" t="n">
+        <v>33.56405216119409</v>
       </c>
     </row>
     <row r="98">
@@ -3174,16 +3899,25 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3603297556.245188</v>
+        <v>3016703763.307519</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1010128837371212</v>
+        <v>0.1120208534574588</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02303337032943803</v>
+        <v>0.02317326327169939</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>116</v>
+      </c>
+      <c r="J98" t="n">
+        <v>460</v>
+      </c>
+      <c r="K98" t="n">
+        <v>26.22720558015935</v>
       </c>
     </row>
     <row r="99">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2633818901.737873</v>
+        <v>3095691354.158817</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09065088151925955</v>
+        <v>0.1071712532990107</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02850564540202695</v>
+        <v>0.02492843551624122</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3519583917.744284</v>
+        <v>4724156223.498626</v>
       </c>
       <c r="F100" t="n">
-        <v>0.130785197019474</v>
+        <v>0.1250121343104503</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02517037117603508</v>
+        <v>0.026349091757912</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>214</v>
+      </c>
+      <c r="J100" t="n">
+        <v>461</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2416895537.194959</v>
+        <v>2423334592.618983</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1607465990433929</v>
+        <v>0.1563869086992486</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03608407949847162</v>
+        <v>0.05280185339763809</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
